--- a/data/init_location.xlsx
+++ b/data/init_location.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06447224-BB80-4187-9CE6-2FE471B2038F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EC40FA-C7AB-824B-8E37-96A99DD88074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="RIS" sheetId="3" r:id="rId3"/>
     <sheet name="RIS_norm_vec" sheetId="5" r:id="rId4"/>
     <sheet name="UAV" sheetId="4" r:id="rId5"/>
+    <sheet name="jammer" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,14 +62,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -102,7 +103,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -118,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,9 +159,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,26 +194,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,26 +229,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -444,9 +411,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -474,7 +441,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -488,7 +455,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -514,12 +481,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -547,7 +514,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -561,7 +528,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -578,12 +545,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -597,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -626,9 +593,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -666,13 +633,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8E25D7-6F60-4892-AF30-03FE35A85CB0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -705,4 +672,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F0536E-E27A-9C47-BBB8-CFE01C5C91F1}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-4</v>
+      </c>
+      <c r="C2">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>